--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workHome\others\waterLevelSensor\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workHome\others\waterLevelSensor\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCEE1B3-5C31-4DCE-BB74-2BC6868335F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6229A5-BFBB-4581-9438-42BA54ADDE55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{FBF7D64B-6C95-45A2-BD29-8DF72A252966}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Designator</t>
   </si>
@@ -85,13 +85,31 @@
   </si>
   <si>
     <t>CN3</t>
+  </si>
+  <si>
+    <t>Soild state relay</t>
+  </si>
+  <si>
+    <t>SSR-25DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacitive soil moisture sensor v1.2 </t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>EK-TM4C123GXL</t>
+  </si>
+  <si>
+    <t>ARM® Cortex®-M4F Based MCU TM4C123G LaunchPad™ Evaluation Kit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +120,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -141,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -155,6 +179,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,16 +500,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD86F3C-7B54-4F68-9828-ED44230B1EE1}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.08984375" customWidth="1"/>
-    <col min="2" max="2" width="40.08984375" customWidth="1"/>
+    <col min="2" max="2" width="59.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -553,7 +584,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>